--- a/Tables/Table3_Supp_T1EandPower.xlsx
+++ b/Tables/Table3_Supp_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F595737-5E5D-46D5-9678-E3E245EBBBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75432659-64BE-4312-A78A-F7138CEC4740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="25">
   <si>
     <t>Software</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,42 @@
   <si>
     <t>This table is a supplimentary of Table3. In previous analysis, Trait 7 - 12 were based on a dataset without population structure. 
 The results from that showed when individual number is low, Linear Regression performed better than MMA. I am testing this based on a Randomly Sampled dataset, and same conditions as Trait 7 - 12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantitative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCTA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Phenotypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Individuals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Causal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,20 +480,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202A05B5-51E1-4499-9DC3-9DCEE1C46472}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="118" customWidth="1"/>
+    <col min="1" max="1" width="80.08203125" customWidth="1"/>
+    <col min="2" max="8" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="126.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>7896</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>7896</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>7896</v>
+      </c>
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>7896</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>7896</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>10000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>7896</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1435,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1716,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1E-3</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D20">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E20" s="1">
         <v>4.9901582661760195E-10</v>
@@ -1739,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21">
         <v>0.210526316206264</v>
@@ -1762,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E22" s="1">
         <v>4.9901582661760195E-10</v>
@@ -1785,10 +1981,10 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>1E-3</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E23">
         <v>4.9995342317536898E-2</v>
@@ -1808,10 +2004,10 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>1E-3</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D24">
-        <v>1E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E24">
         <v>1.6336268090906101</v>
@@ -1832,11 +2028,11 @@
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C20:C24)</f>
-        <v>6.0000000000000006E-4</v>
+        <v>9.4199999999999992E-2</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>2.1599999999999998E-2</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="3"/>
@@ -2772,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46FC19-BF1E-4B20-AD55-94BECAD5A018}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3540,7 +3736,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C31" sqref="C23:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4306,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2D32D2-5E1E-4639-ABBC-4F0B6861FC69}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4351,7 +4547,21 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="C2">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G2" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -4360,7 +4570,21 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4.1671325847582701E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.1818181818181801</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4369,7 +4593,21 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4378,7 +4616,21 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="C5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.21054495207898799</v>
+      </c>
+      <c r="F5">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -4387,7 +4639,21 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E6">
+        <v>0.59266714052924496</v>
+      </c>
+      <c r="F6">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4396,25 +4662,25 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="e">
+      <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="2" t="e">
+        <v>5.7400000000000003E-3</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" ref="D7:G7" si="0">AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="2" t="e">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="2" t="e">
+        <v>0.16897668369116312</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="2" t="e">
+        <v>1.036363636363635</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>11.4</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4425,7 +4691,21 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5.0004659094085697E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -4434,7 +4714,21 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4443,7 +4737,21 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -4452,7 +4760,21 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="C11">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0909090909090899</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -4461,7 +4783,21 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E12">
+        <v>0.346195779172837</v>
+      </c>
+      <c r="F12">
+        <v>1.36363636363636</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -4470,25 +4806,25 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="e">
+      <c r="C13" s="2">
         <f>AVERAGE(C8:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="2" t="e">
+        <v>5.62E-3</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" ref="D13:G13" si="1">AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="2" t="e">
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="2" t="e">
+        <v>7.9240087653384542E-2</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="2" t="e">
+        <v>1.0727272727272716</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>11.8</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -4499,6 +4835,21 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F14">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4507,6 +4858,21 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5.0004658095770503E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4515,6 +4881,21 @@
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -4523,6 +4904,21 @@
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E17">
+        <v>0.59266712455515902</v>
+      </c>
+      <c r="F17">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4531,6 +4927,21 @@
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E18">
+        <v>0.50004192247137602</v>
+      </c>
+      <c r="F18">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -4539,25 +4950,25 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2" t="e">
+      <c r="C19" s="2">
         <f>AVERAGE(C14:C18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="2" t="e">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="D19" s="2">
         <f t="shared" ref="D19:G19" si="2">AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="2" t="e">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="2" t="e">
+        <v>0.27065173064161396</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="2" t="e">
+        <v>0.92727272727272614</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -4568,7 +4979,21 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="C20">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.210526316206264</v>
+      </c>
+      <c r="F20">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -4577,6 +5002,21 @@
       <c r="B21">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4.4020733380375398E-24</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -4585,6 +5025,21 @@
       <c r="B22">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.1660452721254804E-24</v>
+      </c>
+      <c r="F22">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -4593,6 +5048,21 @@
       <c r="B23">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.4020733380375398E-24</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4601,6 +5071,21 @@
       <c r="B24">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E24">
+        <v>2.5317111801573402</v>
+      </c>
+      <c r="F24">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G24">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -4609,25 +5094,25 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="e">
+      <c r="C25" s="2">
         <f>AVERAGE(C20:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="2" t="e">
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" ref="D25:G25" si="3">AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="2" t="e">
+        <v>2.1999999999999998E-4</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="2" t="e">
+        <v>0.54844749927272085</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="2" t="e">
+        <v>1.1090909090909091</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>12.2</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4638,6 +5123,21 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.21054494808576399</v>
+      </c>
+      <c r="F26">
+        <v>0.72727272727272696</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -4646,6 +5146,21 @@
       <c r="B27">
         <v>2</v>
       </c>
+      <c r="C27">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4654,6 +5169,21 @@
       <c r="B28">
         <v>3</v>
       </c>
+      <c r="C28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4662,6 +5192,21 @@
       <c r="B29">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -4670,6 +5215,21 @@
       <c r="B30">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E30">
+        <v>2.5316273268488998</v>
+      </c>
+      <c r="F30">
+        <v>1.9090909090909101</v>
+      </c>
+      <c r="G30">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4678,25 +5238,25 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2" t="e">
+      <c r="C31" s="2">
         <f>AVERAGE(C26:C30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="2" t="e">
+        <v>4.7200000000000002E-3</v>
+      </c>
+      <c r="D31" s="2">
         <f t="shared" ref="D31:G31" si="4">AVERAGE(D26:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="2" t="e">
+        <v>2.1999999999999998E-4</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="2" t="e">
+        <v>0.54843445498693277</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="2" t="e">
+        <v>1.1090909090909091</v>
+      </c>
+      <c r="G31" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>12.2</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table3_Supp_T1EandPower.xlsx
+++ b/Tables/Table3_Supp_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75432659-64BE-4312-A78A-F7138CEC4740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E649CDD-74F6-4BF2-9FB3-3913CCAF9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50" yWindow="1140" windowWidth="21550" windowHeight="12550" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF09B7FB-4090-489C-AD1E-2EFE5EEA6F89}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2201,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F789EAE5-9D5E-487A-90DA-6740655B0313}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:G30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC46FC19-BF1E-4B20-AD55-94BECAD5A018}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:G12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3735,8 +3735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E7149B-44B4-42AB-AF50-B8B971769096}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C23:C31"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4502,8 +4502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2D32D2-5E1E-4639-ABBC-4F0B6861FC69}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Supp_T1EandPower.xlsx
+++ b/Tables/Table3_Supp_T1EandPower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E649CDD-74F6-4BF2-9FB3-3913CCAF9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0071AA-24EB-4CFC-A5A7-7927CCF4F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50" yWindow="1140" windowWidth="21550" windowHeight="12550" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4503,7 +4503,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Tables/Table3_Supp_T1EandPower.xlsx
+++ b/Tables/Table3_Supp_T1EandPower.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0071AA-24EB-4CFC-A5A7-7927CCF4F568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D85A6D2-A1EB-4DBA-B1C2-1CD5E14842DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1140" windowWidth="21550" windowHeight="12550" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="7" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C22" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C27" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2202,7 +2202,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C25" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2969,7 +2969,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C26" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3736,7 +3736,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C27" sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4503,7 +4503,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
